--- a/Manual Testing demo banking website/day4/TestCaseSuite_v1.xlsx
+++ b/Manual Testing demo banking website/day4/TestCaseSuite_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing udacity\Guru99\day4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing udacity\Guru99\Manual Testing demo banking website\day4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B25C3E-262C-4A88-9415-ADA0C410B8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF8BD2-00D6-4F45-8D0C-7B1840617B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="414">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,13 +73,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>24/10/2013</t>
-  </si>
-  <si>
     <t>Initial Draft</t>
-  </si>
-  <si>
-    <t>15/11/2013</t>
   </si>
   <si>
     <t>Added Test Steps and Test Data</t>
@@ -1350,6 +1344,9 @@
   </si>
   <si>
     <t>DC 1</t>
+  </si>
+  <si>
+    <t>24/1/2023</t>
   </si>
 </sst>
 </file>
@@ -1399,12 +1396,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
@@ -1431,6 +1422,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
   </fills>
@@ -1561,12 +1558,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1600,56 +1591,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2023,7 +2020,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
@@ -2035,122 +2032,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="F2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="34"/>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+        <v>249</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H100" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
@@ -2177,117 +2174,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="17"/>
+      <c r="F2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="G3" s="17"/>
+      <c r="F3" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>249</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2303,7 +2300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2318,318 +2315,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>177</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
+        <v>246</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
+        <v>166</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H104" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
@@ -2654,29 +2651,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2684,36 +2681,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2721,44 +2718,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,44 +2763,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2811,44 +2808,44 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2856,20 +2853,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2894,29 +2891,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2924,16 +2921,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2941,58 +2938,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="15" t="s">
         <v>397</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3000,19 +2997,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3027,8 +3024,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3048,98 +3045,72 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
@@ -3687,944 +3658,944 @@
     <col min="9" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-    </row>
-    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-    </row>
-    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="D7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-    </row>
-    <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="F9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="D11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-    </row>
-    <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="F13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="F14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="D15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-    </row>
-    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
+      <c r="E19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="F19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="D20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-    </row>
-    <row r="21" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="D21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-    </row>
-    <row r="22" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="D23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-    </row>
-    <row r="24" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="D24" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-    </row>
-    <row r="25" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
+      <c r="E25" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="F25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+      <c r="E27" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="D28" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="18" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18" t="s">
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-    </row>
-    <row r="29" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="C29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="20"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="20"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
+      <c r="A32" s="20"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
+      <c r="A33" s="20"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="20"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
+      <c r="A35" s="20"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
+      <c r="A36" s="20"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="20"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
+      <c r="A38" s="20"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="20"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+      <c r="A40" s="20"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
+      <c r="A41" s="20"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
+      <c r="A42" s="20"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
+      <c r="A43" s="20"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="20"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
+      <c r="A45" s="20"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
+      <c r="A46" s="20"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
+      <c r="A47" s="20"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
+      <c r="A48" s="20"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
+      <c r="A49" s="20"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
+      <c r="A50" s="20"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="A51" s="20"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="A53" s="20"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
+      <c r="A54" s="20"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
+      <c r="A55" s="20"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
+      <c r="A56" s="20"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
+      <c r="A57" s="20"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
+      <c r="A58" s="20"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
+      <c r="A59" s="20"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
+      <c r="A60" s="20"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
+      <c r="A61" s="20"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
+      <c r="A62" s="20"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
+      <c r="A63" s="20"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
+      <c r="A64" s="20"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
+      <c r="A65" s="20"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
+      <c r="A66" s="20"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
+      <c r="A67" s="20"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
+      <c r="A68" s="20"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
+      <c r="A69" s="20"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
+      <c r="A70" s="20"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
+      <c r="A71" s="20"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
+      <c r="A73" s="20"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
+      <c r="A74" s="20"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
+      <c r="A75" s="20"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
+      <c r="A76" s="20"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
+      <c r="A77" s="20"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
+      <c r="A78" s="20"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
+      <c r="A79" s="20"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
+      <c r="A80" s="20"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
+      <c r="A81" s="20"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
+      <c r="A82" s="20"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
+      <c r="A83" s="20"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
+      <c r="A84" s="20"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
+      <c r="A85" s="20"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
+      <c r="A86" s="20"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
+      <c r="A87" s="20"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="22"/>
+      <c r="A88" s="20"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="22"/>
+      <c r="A89" s="20"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="22"/>
+      <c r="A90" s="20"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="22"/>
+      <c r="A91" s="20"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="22"/>
+      <c r="A92" s="20"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
+      <c r="A93" s="20"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
+      <c r="A94" s="20"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="22"/>
+      <c r="A95" s="20"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="22"/>
+      <c r="A96" s="20"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22"/>
+      <c r="A97" s="20"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
+      <c r="A98" s="20"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
+      <c r="A99" s="20"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
+      <c r="A100" s="20"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="22"/>
+      <c r="A101" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -4651,29 +4622,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4681,44 +4652,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4726,44 +4697,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4771,44 +4742,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4835,29 +4806,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4865,44 +4836,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4934,497 +4905,497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
+      <c r="F14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
+      <c r="F15" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
+      <c r="F16" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
+      <c r="F21" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H24" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
@@ -5450,250 +5421,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="20"/>
+        <v>190</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="7:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
@@ -5725,342 +5696,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="21"/>
+        <v>177</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="E5" s="1">
         <v>128</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="D6" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
+      <c r="E6" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21"/>
+        <v>249</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
+        <v>190</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H108" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
@@ -6087,121 +6058,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="17"/>
+      <c r="F2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="17"/>
+      <c r="F3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>249</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
